--- a/documents/Project Schedule.xlsx
+++ b/documents/Project Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Group-4-Communications-System\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5733A30F-63D1-4289-A7A2-FFF4A045BE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D691D6-1623-4A31-AD48-1ED54E980A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3374D5E1-DC4C-4E47-A530-8BC54FA2651F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TASK</t>
   </si>
@@ -62,22 +62,13 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Project Presentation</t>
-  </si>
-  <si>
-    <t>Project Presentation Phase 1</t>
-  </si>
-  <si>
-    <t>Project Presentation Phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final Project Presentation </t>
-  </si>
-  <si>
     <t>PROJECT START:</t>
   </si>
   <si>
     <t>Display Week:</t>
+  </si>
+  <si>
+    <t>Finished Product</t>
   </si>
 </sst>
 </file>
@@ -265,7 +256,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -288,7 +279,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="3"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,7 +637,7 @@
   <dimension ref="A5:DL24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +682,7 @@
   <sheetData>
     <row r="5" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>44587</v>
@@ -699,14 +690,14 @@
     </row>
     <row r="6" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="10">
         <f>E7</f>
-        <v>44599</v>
+        <v>44606</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -716,7 +707,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="10">
         <f t="shared" ref="L6" si="0">L7</f>
-        <v>44606</v>
+        <v>44613</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -726,7 +717,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="10">
         <f t="shared" ref="S6" si="1">S7</f>
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -736,7 +727,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="10">
         <f t="shared" ref="Z6" si="2">Z7</f>
-        <v>44620</v>
+        <v>44627</v>
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
@@ -832,115 +823,115 @@
     <row r="7" spans="1:116" x14ac:dyDescent="0.3">
       <c r="E7" s="7">
         <f>$B$5-WEEKDAY(B5,3)+(display_month-1)*7</f>
-        <v>44599</v>
+        <v>44606</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:K7" si="3">E7+1</f>
-        <v>44600</v>
+        <v>44607</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
-        <v>44602</v>
+        <v>44609</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>44603</v>
+        <v>44610</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="3"/>
-        <v>44604</v>
+        <v>44611</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>44605</v>
+        <v>44612</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ref="L7:Y7" si="4">K7+1</f>
-        <v>44606</v>
+        <v>44613</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="4"/>
-        <v>44607</v>
+        <v>44614</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="4"/>
-        <v>44608</v>
+        <v>44615</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="4"/>
-        <v>44609</v>
+        <v>44616</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>44610</v>
+        <v>44617</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>44611</v>
+        <v>44618</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="4"/>
-        <v>44612</v>
+        <v>44619</v>
       </c>
       <c r="S7" s="7">
         <f>R7+1</f>
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="4"/>
-        <v>44614</v>
+        <v>44621</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="4"/>
-        <v>44615</v>
+        <v>44622</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="4"/>
-        <v>44616</v>
+        <v>44623</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>44617</v>
+        <v>44624</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>44618</v>
+        <v>44625</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="4"/>
-        <v>44619</v>
+        <v>44626</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:AF7" si="5">Y7+1</f>
-        <v>44620</v>
+        <v>44627</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>44621</v>
+        <v>44628</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="5"/>
-        <v>44622</v>
+        <v>44629</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="5"/>
-        <v>44623</v>
+        <v>44630</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="5"/>
-        <v>44624</v>
+        <v>44631</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="5"/>
-        <v>44625</v>
+        <v>44632</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="5"/>
-        <v>44626</v>
+        <v>44633</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -1479,13 +1470,13 @@
     </row>
     <row r="11" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5">
-        <v>44592</v>
+        <v>44607</v>
       </c>
       <c r="C11" s="5">
-        <v>44594</v>
+        <v>44620</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1603,13 +1594,13 @@
     </row>
     <row r="12" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5">
-        <v>44607</v>
+        <v>44621</v>
       </c>
       <c r="C12" s="5">
-        <v>44620</v>
+        <v>44655</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1727,13 +1718,13 @@
     </row>
     <row r="13" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5">
-        <v>44620</v>
+        <v>44656</v>
       </c>
       <c r="C13" s="5">
-        <v>44622</v>
+        <v>44684</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1851,13 +1842,13 @@
     </row>
     <row r="14" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B14" s="5">
-        <v>44622</v>
+        <v>44685</v>
       </c>
       <c r="C14" s="5">
-        <v>44655</v>
+        <v>44685</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1974,44 +1965,38 @@
       <c r="DL14"/>
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44655</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44657</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
@@ -2098,44 +2083,38 @@
       <c r="DL15"/>
     </row>
     <row r="16" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5">
-        <v>44657</v>
-      </c>
-      <c r="C16" s="5">
-        <v>44683</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
@@ -2222,44 +2201,38 @@
       <c r="DL16"/>
     </row>
     <row r="17" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5">
-        <v>44683</v>
-      </c>
-      <c r="C17" s="5">
-        <v>44685</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
@@ -3114,12 +3087,12 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="Z6:AF6"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:AF17">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="E9:AF14">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(E$7&gt;=$B9,E$7&lt;=$C9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:AF17">
+  <conditionalFormatting sqref="E7:AF14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>E$7=TODAY()</formula>
     </cfRule>

--- a/documents/Project Schedule.xlsx
+++ b/documents/Project Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Group-4-Communications-System\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D691D6-1623-4A31-AD48-1ED54E980A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F2EB7-5846-483E-85D0-01BE316B1733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3374D5E1-DC4C-4E47-A530-8BC54FA2651F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TASK</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Finished Product</t>
+  </si>
+  <si>
+    <t>&lt;-SCROLLBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRS Documentation </t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -236,11 +242,26 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -279,7 +300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192BAD4-51C4-4A74-8D19-474A62104CCD}">
-  <dimension ref="A5:DL24"/>
+  <dimension ref="A4:DL24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,6 +701,11 @@
     <col min="117" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:116" x14ac:dyDescent="0.3">
+      <c r="T4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
@@ -693,11 +719,11 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10">
         <f>E7</f>
-        <v>44606</v>
+        <v>44592</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -707,7 +733,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="10">
         <f t="shared" ref="L6" si="0">L7</f>
-        <v>44613</v>
+        <v>44599</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -717,7 +743,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="10">
         <f t="shared" ref="S6" si="1">S7</f>
-        <v>44620</v>
+        <v>44606</v>
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
@@ -727,7 +753,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="10">
         <f t="shared" ref="Z6" si="2">Z7</f>
-        <v>44627</v>
+        <v>44613</v>
       </c>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
@@ -823,115 +849,115 @@
     <row r="7" spans="1:116" x14ac:dyDescent="0.3">
       <c r="E7" s="7">
         <f>$B$5-WEEKDAY(B5,3)+(display_month-1)*7</f>
-        <v>44606</v>
+        <v>44592</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:K7" si="3">E7+1</f>
-        <v>44607</v>
+        <v>44593</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>44608</v>
+        <v>44594</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
-        <v>44609</v>
+        <v>44595</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>44610</v>
+        <v>44596</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="3"/>
-        <v>44611</v>
+        <v>44597</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>44612</v>
+        <v>44598</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ref="L7:Y7" si="4">K7+1</f>
-        <v>44613</v>
+        <v>44599</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="4"/>
-        <v>44614</v>
+        <v>44600</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="4"/>
-        <v>44615</v>
+        <v>44601</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="4"/>
-        <v>44616</v>
+        <v>44602</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>44617</v>
+        <v>44603</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>44618</v>
+        <v>44604</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="4"/>
-        <v>44619</v>
+        <v>44605</v>
       </c>
       <c r="S7" s="7">
         <f>R7+1</f>
-        <v>44620</v>
+        <v>44606</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="4"/>
-        <v>44621</v>
+        <v>44607</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="4"/>
-        <v>44622</v>
+        <v>44608</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="4"/>
-        <v>44623</v>
+        <v>44609</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>44624</v>
+        <v>44610</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>44625</v>
+        <v>44611</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="4"/>
-        <v>44626</v>
+        <v>44612</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:AF7" si="5">Y7+1</f>
-        <v>44627</v>
+        <v>44613</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>44628</v>
+        <v>44614</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="5"/>
-        <v>44629</v>
+        <v>44615</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="5"/>
-        <v>44630</v>
+        <v>44616</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="5"/>
-        <v>44631</v>
+        <v>44617</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="5"/>
-        <v>44632</v>
+        <v>44618</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="5"/>
-        <v>44633</v>
+        <v>44619</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -1469,44 +1495,15 @@
       <c r="DL10"/>
     </row>
     <row r="11" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44607</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44620</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44599</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44606</v>
+      </c>
       <c r="AG11"/>
       <c r="AH11"/>
       <c r="AI11"/>
@@ -1594,13 +1591,13 @@
     </row>
     <row r="12" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5">
-        <v>44621</v>
+        <v>44607</v>
       </c>
       <c r="C12" s="5">
-        <v>44655</v>
+        <v>44620</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1718,13 +1715,13 @@
     </row>
     <row r="13" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="5">
-        <v>44656</v>
+        <v>44621</v>
       </c>
       <c r="C13" s="5">
-        <v>44684</v>
+        <v>44655</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1842,13 +1839,13 @@
     </row>
     <row r="14" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>44685</v>
+        <v>44656</v>
       </c>
       <c r="C14" s="5">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1965,38 +1962,44 @@
       <c r="DL14"/>
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>44685</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44685</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
@@ -2675,7 +2678,6 @@
     <row r="21" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -3087,12 +3089,15 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="Z6:AF6"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:AF14">
-    <cfRule type="expression" dxfId="1" priority="7">
+  <conditionalFormatting sqref="E9:AF24">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(E$7&gt;=$B9,E$7&lt;=$C9)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$E$7=TODAY()</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:AF14">
+  <conditionalFormatting sqref="E7:AF15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>E$7=TODAY()</formula>
     </cfRule>

--- a/documents/Project Schedule.xlsx
+++ b/documents/Project Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Group-4-Communications-System\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F2EB7-5846-483E-85D0-01BE316B1733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E04764-588C-4975-BFFD-C599019DE337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3374D5E1-DC4C-4E47-A530-8BC54FA2651F}"/>
   </bookViews>
@@ -233,6 +233,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -240,9 +243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,7 +658,7 @@
   <dimension ref="A4:DL24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,48 +719,48 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
         <f>E7</f>
-        <v>44592</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="10">
+        <v>44648</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="11">
         <f t="shared" ref="L6" si="0">L7</f>
-        <v>44599</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="10">
+        <v>44655</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="11">
         <f t="shared" ref="S6" si="1">S7</f>
-        <v>44606</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="10">
+        <v>44662</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="11">
         <f t="shared" ref="Z6" si="2">Z7</f>
-        <v>44613</v>
-      </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="12"/>
+        <v>44669</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="13"/>
       <c r="AG6"/>
       <c r="AH6"/>
       <c r="AI6"/>
@@ -849,115 +849,115 @@
     <row r="7" spans="1:116" x14ac:dyDescent="0.3">
       <c r="E7" s="7">
         <f>$B$5-WEEKDAY(B5,3)+(display_month-1)*7</f>
-        <v>44592</v>
+        <v>44648</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:K7" si="3">E7+1</f>
-        <v>44593</v>
+        <v>44649</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>44594</v>
+        <v>44650</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
-        <v>44595</v>
+        <v>44651</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>44596</v>
+        <v>44652</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="3"/>
-        <v>44597</v>
+        <v>44653</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>44598</v>
+        <v>44654</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ref="L7:Y7" si="4">K7+1</f>
-        <v>44599</v>
+        <v>44655</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="4"/>
-        <v>44600</v>
+        <v>44656</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="4"/>
-        <v>44601</v>
+        <v>44657</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="4"/>
-        <v>44602</v>
+        <v>44658</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>44603</v>
+        <v>44659</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>44604</v>
+        <v>44660</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="4"/>
-        <v>44605</v>
+        <v>44661</v>
       </c>
       <c r="S7" s="7">
         <f>R7+1</f>
-        <v>44606</v>
+        <v>44662</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="4"/>
-        <v>44607</v>
+        <v>44663</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="4"/>
-        <v>44608</v>
+        <v>44664</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="4"/>
-        <v>44609</v>
+        <v>44665</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>44610</v>
+        <v>44666</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>44611</v>
+        <v>44667</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="4"/>
-        <v>44612</v>
+        <v>44668</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:AF7" si="5">Y7+1</f>
-        <v>44613</v>
+        <v>44669</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>44614</v>
+        <v>44670</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="5"/>
-        <v>44615</v>
+        <v>44671</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="5"/>
-        <v>44616</v>
+        <v>44672</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="5"/>
-        <v>44617</v>
+        <v>44673</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="5"/>
-        <v>44618</v>
+        <v>44674</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="5"/>
-        <v>44619</v>
+        <v>44675</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -1597,7 +1597,7 @@
         <v>44607</v>
       </c>
       <c r="C12" s="5">
-        <v>44620</v>
+        <v>44657</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1718,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="5">
-        <v>44621</v>
+        <v>44658</v>
       </c>
       <c r="C13" s="5">
-        <v>44655</v>
+        <v>44684</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1842,7 +1842,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="5">
-        <v>44656</v>
+        <v>44658</v>
       </c>
       <c r="C14" s="5">
         <v>44684</v>
@@ -1975,7 +1975,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>

--- a/documents/Project Schedule.xlsx
+++ b/documents/Project Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\Documents\GitHub\Group-4-Communications-System\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E04764-588C-4975-BFFD-C599019DE337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C15425-82A3-44F1-BC80-4A40DF535121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3374D5E1-DC4C-4E47-A530-8BC54FA2651F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3374D5E1-DC4C-4E47-A530-8BC54FA2651F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>TASK</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t xml:space="preserve">SRS Documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Document </t>
+  </si>
+  <si>
+    <t>Maxwell Message Class</t>
+  </si>
+  <si>
+    <t>Brianna Client/GUI</t>
+  </si>
+  <si>
+    <t>Matthew GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUnit Testing </t>
+  </si>
+  <si>
+    <t>Owen Server/Supervisor Class</t>
+  </si>
+  <si>
+    <t>Anthony Chatroom/User Class</t>
   </si>
 </sst>
 </file>
@@ -132,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -200,11 +221,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,11 +313,56 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -277,7 +390,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,7 +413,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$B$6" horiz="1" max="12" min="1" page="0" val="12"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,7 +771,7 @@
   <dimension ref="A4:DL24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,11 +832,11 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="11">
         <f>E7</f>
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -733,7 +846,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="11">
         <f t="shared" ref="L6" si="0">L7</f>
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -743,7 +856,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="11">
         <f t="shared" ref="S6" si="1">S7</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
@@ -753,7 +866,7 @@
       <c r="Y6" s="13"/>
       <c r="Z6" s="11">
         <f t="shared" ref="Z6" si="2">Z7</f>
-        <v>44669</v>
+        <v>44683</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -849,115 +962,115 @@
     <row r="7" spans="1:116" x14ac:dyDescent="0.3">
       <c r="E7" s="7">
         <f>$B$5-WEEKDAY(B5,3)+(display_month-1)*7</f>
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:K7" si="3">E7+1</f>
-        <v>44649</v>
+        <v>44663</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="3"/>
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
-        <v>44651</v>
+        <v>44665</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="3"/>
-        <v>44652</v>
+        <v>44666</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="3"/>
-        <v>44653</v>
+        <v>44667</v>
       </c>
       <c r="K7" s="9">
         <f t="shared" si="3"/>
-        <v>44654</v>
+        <v>44668</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" ref="L7:Y7" si="4">K7+1</f>
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="4"/>
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="4"/>
-        <v>44657</v>
+        <v>44671</v>
       </c>
       <c r="O7" s="8">
         <f t="shared" si="4"/>
-        <v>44658</v>
+        <v>44672</v>
       </c>
       <c r="P7" s="8">
         <f t="shared" si="4"/>
-        <v>44659</v>
+        <v>44673</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
-        <v>44660</v>
+        <v>44674</v>
       </c>
       <c r="R7" s="9">
         <f t="shared" si="4"/>
-        <v>44661</v>
+        <v>44675</v>
       </c>
       <c r="S7" s="7">
         <f>R7+1</f>
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="4"/>
-        <v>44663</v>
+        <v>44677</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="4"/>
-        <v>44664</v>
+        <v>44678</v>
       </c>
       <c r="V7" s="8">
         <f t="shared" si="4"/>
-        <v>44665</v>
+        <v>44679</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>44666</v>
+        <v>44680</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>44667</v>
+        <v>44681</v>
       </c>
       <c r="Y7" s="9">
         <f t="shared" si="4"/>
-        <v>44668</v>
+        <v>44682</v>
       </c>
       <c r="Z7" s="7">
         <f t="shared" ref="Z7:AF7" si="5">Y7+1</f>
-        <v>44669</v>
+        <v>44683</v>
       </c>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>44670</v>
+        <v>44684</v>
       </c>
       <c r="AB7" s="8">
         <f t="shared" si="5"/>
-        <v>44671</v>
+        <v>44685</v>
       </c>
       <c r="AC7" s="8">
         <f t="shared" si="5"/>
-        <v>44672</v>
+        <v>44686</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" si="5"/>
-        <v>44673</v>
+        <v>44687</v>
       </c>
       <c r="AE7" s="8">
         <f t="shared" si="5"/>
-        <v>44674</v>
+        <v>44688</v>
       </c>
       <c r="AF7" s="9">
         <f t="shared" si="5"/>
-        <v>44675</v>
+        <v>44689</v>
       </c>
       <c r="AG7"/>
       <c r="AH7"/>
@@ -1714,44 +1827,15 @@
       <c r="DL12"/>
     </row>
     <row r="13" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5">
-        <v>44658</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44684</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44607</v>
+      </c>
+      <c r="C13" s="4">
+        <v>44657</v>
+      </c>
       <c r="AG13"/>
       <c r="AH13"/>
       <c r="AI13"/>
@@ -1839,13 +1923,13 @@
     </row>
     <row r="14" spans="1:116" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5">
         <v>44658</v>
       </c>
       <c r="C14" s="5">
-        <v>44684</v>
+        <v>44675</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1962,44 +2046,44 @@
       <c r="DL14"/>
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44685</v>
-      </c>
-      <c r="C15" s="5">
-        <v>44685</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <v>44664</v>
+      </c>
+      <c r="C15" s="15">
+        <v>44675</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
       <c r="AG15"/>
       <c r="AH15"/>
       <c r="AI15"/>
@@ -2086,38 +2170,44 @@
       <c r="DL15"/>
     </row>
     <row r="16" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20">
+        <v>44664</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44675</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
       <c r="AG16"/>
       <c r="AH16"/>
       <c r="AI16"/>
@@ -2204,38 +2294,44 @@
       <c r="DL16"/>
     </row>
     <row r="17" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
+      <c r="A17" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="25">
+        <v>44664</v>
+      </c>
+      <c r="C17" s="25">
+        <v>44675</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
       <c r="AG17"/>
       <c r="AH17"/>
       <c r="AI17"/>
@@ -2322,38 +2418,44 @@
       <c r="DL17"/>
     </row>
     <row r="18" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
+      <c r="A18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22">
+        <v>44664</v>
+      </c>
+      <c r="C18" s="22">
+        <v>44675</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
@@ -2440,38 +2542,44 @@
       <c r="DL18"/>
     </row>
     <row r="19" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-      <c r="AF19"/>
+      <c r="A19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44664</v>
+      </c>
+      <c r="C19" s="17">
+        <v>44675</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
       <c r="AG19"/>
       <c r="AH19"/>
       <c r="AI19"/>
@@ -2558,38 +2666,44 @@
       <c r="DL19"/>
     </row>
     <row r="20" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44676</v>
+      </c>
+      <c r="C20" s="5">
+        <v>44684</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20"/>
       <c r="AH20"/>
       <c r="AI20"/>
@@ -2676,37 +2790,15 @@
       <c r="DL20"/>
     </row>
     <row r="21" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-      <c r="AF21"/>
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44676</v>
+      </c>
+      <c r="C21" s="4">
+        <v>44684</v>
+      </c>
       <c r="AG21"/>
       <c r="AH21"/>
       <c r="AI21"/>
@@ -2793,38 +2885,44 @@
       <c r="DL21"/>
     </row>
     <row r="22" spans="1:116" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-      <c r="AF22"/>
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>44685</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44685</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
       <c r="AG22"/>
       <c r="AH22"/>
       <c r="AI22"/>
@@ -3089,16 +3187,16 @@
     <mergeCell ref="S6:Y6"/>
     <mergeCell ref="Z6:AF6"/>
   </mergeCells>
-  <conditionalFormatting sqref="E9:AF24">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="E9:AF22">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>AND(E$7&gt;=$B9,E$7&lt;=$C9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:AF22">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E$7=TODAY()</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7:AF15">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>E$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
